--- a/UX/survey/answer.xlsx
+++ b/UX/survey/answer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linhongdai/Desktop/groupResit/web-softwaretools-plain/UX/survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{418BD15B-6EA6-7B4D-8688-6ACFF286B329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEBF9D87-0FBA-A844-9FAB-D52565935962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1000" windowWidth="27840" windowHeight="15520" xr2:uid="{E41B8BAA-B55F-9342-8097-D45C4AF06D69}"/>
+    <workbookView xWindow="1480" yWindow="2000" windowWidth="27040" windowHeight="14520" xr2:uid="{9ED200D8-85A1-D04E-8977-8255892EDA49}"/>
   </bookViews>
   <sheets>
     <sheet name="Answer_Distributions" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Nr</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -62,15 +71,6 @@
 Here you can see the distribution of answers to the single items. If there are items that show a polarization in the answers (many negative and many positve judgements and not much neutral judgements) may help to get deeper insigths concerning aspects of the product that are experienced as quite positive by one subgroup of participants and quite negative by another subgroup.</t>
     </r>
   </si>
-  <si>
-    <t>Nr</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
 </sst>
 </file>
 
@@ -85,19 +85,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -109,15 +113,11 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -147,47 +147,8 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -213,10 +174,49 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -232,28 +232,28 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,7 +543,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3992-3144-A6F6-E30AC24BC03A}"/>
+              <c16:uniqueId val="{00000000-4573-2740-A6C2-360056B62326}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -738,7 +738,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3992-3144-A6F6-E30AC24BC03A}"/>
+              <c16:uniqueId val="{00000001-4573-2740-A6C2-360056B62326}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -933,7 +933,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3992-3144-A6F6-E30AC24BC03A}"/>
+              <c16:uniqueId val="{00000002-4573-2740-A6C2-360056B62326}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1128,7 +1128,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3992-3144-A6F6-E30AC24BC03A}"/>
+              <c16:uniqueId val="{00000003-4573-2740-A6C2-360056B62326}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1323,7 +1323,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3992-3144-A6F6-E30AC24BC03A}"/>
+              <c16:uniqueId val="{00000004-4573-2740-A6C2-360056B62326}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1518,7 +1518,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3992-3144-A6F6-E30AC24BC03A}"/>
+              <c16:uniqueId val="{00000005-4573-2740-A6C2-360056B62326}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1713,7 +1713,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-3992-3144-A6F6-E30AC24BC03A}"/>
+              <c16:uniqueId val="{00000006-4573-2740-A6C2-360056B62326}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2475,7 +2475,7 @@
         <xdr:cNvPr id="2" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7ABD615-FC8A-7C4E-BF52-67428E97975A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA10FA9C-3417-214B-B3EB-DC55451D69E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2507,7 +2507,6 @@
       <sheetName val="DT"/>
       <sheetName val="Results"/>
       <sheetName val="Confidence_Intervals"/>
-      <sheetName val="Answer_Distributions"/>
       <sheetName val="Scale_Consistency"/>
       <sheetName val="Benchmark"/>
       <sheetName val="Inconsistencies"/>
@@ -2516,8 +2515,20 @@
       <sheetName val="Items"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>English</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="A4">
+            <v>6</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2">
         <row r="4">
           <cell r="A4">
@@ -82888,691 +82899,25 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>annoying/enjoyable</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-          <cell r="E3">
-            <v>3</v>
-          </cell>
-          <cell r="F3">
-            <v>1</v>
-          </cell>
-          <cell r="G3">
-            <v>10</v>
-          </cell>
-          <cell r="H3">
-            <v>17</v>
-          </cell>
-          <cell r="I3">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>not understandable/understandable</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-          <cell r="E4">
-            <v>2</v>
-          </cell>
-          <cell r="F4">
-            <v>1</v>
-          </cell>
-          <cell r="G4">
-            <v>7</v>
-          </cell>
-          <cell r="H4">
-            <v>16</v>
-          </cell>
-          <cell r="I4">
-            <v>21</v>
-          </cell>
-        </row>
+      <sheetData sheetId="4">
         <row r="5">
-          <cell r="B5" t="str">
-            <v>dull/creative</v>
-          </cell>
-          <cell r="C5">
-            <v>1</v>
-          </cell>
-          <cell r="D5">
-            <v>2</v>
-          </cell>
-          <cell r="E5">
-            <v>0</v>
-          </cell>
-          <cell r="F5">
-            <v>14</v>
-          </cell>
-          <cell r="G5">
-            <v>5</v>
-          </cell>
-          <cell r="H5">
-            <v>13</v>
-          </cell>
-          <cell r="I5">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>difficult to learn/easy to learn</v>
-          </cell>
-          <cell r="C6">
-            <v>2</v>
-          </cell>
-          <cell r="D6">
-            <v>3</v>
-          </cell>
-          <cell r="E6">
-            <v>3</v>
-          </cell>
-          <cell r="F6">
-            <v>0</v>
-          </cell>
-          <cell r="G6">
-            <v>7</v>
-          </cell>
-          <cell r="H6">
-            <v>15</v>
-          </cell>
-          <cell r="I6">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>inferior/valuable</v>
-          </cell>
-          <cell r="C7">
-            <v>0</v>
-          </cell>
-          <cell r="D7">
-            <v>0</v>
-          </cell>
-          <cell r="E7">
-            <v>1</v>
-          </cell>
-          <cell r="F7">
-            <v>7</v>
-          </cell>
-          <cell r="G7">
-            <v>8</v>
-          </cell>
-          <cell r="H7">
-            <v>16</v>
-          </cell>
-          <cell r="I7">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>boring/exciting</v>
-          </cell>
-          <cell r="C8">
-            <v>1</v>
-          </cell>
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-          <cell r="E8">
-            <v>1</v>
-          </cell>
-          <cell r="F8">
-            <v>14</v>
-          </cell>
-          <cell r="G8">
-            <v>11</v>
-          </cell>
-          <cell r="H8">
-            <v>14</v>
-          </cell>
-          <cell r="I8">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>not interesting/interesting</v>
-          </cell>
-          <cell r="C9">
-            <v>1</v>
-          </cell>
-          <cell r="D9">
-            <v>2</v>
-          </cell>
-          <cell r="E9">
-            <v>1</v>
-          </cell>
-          <cell r="F9">
-            <v>8</v>
-          </cell>
-          <cell r="G9">
-            <v>8</v>
-          </cell>
-          <cell r="H9">
-            <v>21</v>
-          </cell>
-          <cell r="I9">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>unpredictable/predictable</v>
-          </cell>
-          <cell r="C10">
-            <v>2</v>
-          </cell>
-          <cell r="D10">
-            <v>1</v>
-          </cell>
-          <cell r="E10">
-            <v>7</v>
-          </cell>
-          <cell r="F10">
-            <v>10</v>
-          </cell>
-          <cell r="G10">
-            <v>12</v>
-          </cell>
-          <cell r="H10">
-            <v>13</v>
-          </cell>
-          <cell r="I10">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>slow/fast</v>
-          </cell>
-          <cell r="C11">
-            <v>0</v>
-          </cell>
-          <cell r="D11">
-            <v>1</v>
-          </cell>
-          <cell r="E11">
-            <v>1</v>
-          </cell>
-          <cell r="F11">
-            <v>4</v>
-          </cell>
-          <cell r="G11">
-            <v>8</v>
-          </cell>
-          <cell r="H11">
-            <v>21</v>
-          </cell>
-          <cell r="I11">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>conventional/inventive</v>
-          </cell>
-          <cell r="C12">
-            <v>0</v>
-          </cell>
-          <cell r="D12">
-            <v>3</v>
-          </cell>
-          <cell r="E12">
-            <v>3</v>
-          </cell>
-          <cell r="F12">
-            <v>11</v>
-          </cell>
-          <cell r="G12">
-            <v>11</v>
-          </cell>
-          <cell r="H12">
-            <v>10</v>
-          </cell>
-          <cell r="I12">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>obstructive/supportive</v>
-          </cell>
-          <cell r="C13">
-            <v>0</v>
-          </cell>
-          <cell r="D13">
-            <v>2</v>
-          </cell>
-          <cell r="E13">
-            <v>1</v>
-          </cell>
-          <cell r="F13">
-            <v>8</v>
-          </cell>
-          <cell r="G13">
-            <v>13</v>
-          </cell>
-          <cell r="H13">
-            <v>14</v>
-          </cell>
-          <cell r="I13">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>bad/good</v>
-          </cell>
-          <cell r="C14">
-            <v>2</v>
-          </cell>
-          <cell r="D14">
-            <v>0</v>
-          </cell>
-          <cell r="E14">
-            <v>0</v>
-          </cell>
-          <cell r="F14">
-            <v>1</v>
-          </cell>
-          <cell r="G14">
-            <v>7</v>
-          </cell>
-          <cell r="H14">
-            <v>17</v>
-          </cell>
-          <cell r="I14">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>complicated/easy</v>
-          </cell>
-          <cell r="C15">
-            <v>1</v>
-          </cell>
-          <cell r="D15">
-            <v>0</v>
-          </cell>
-          <cell r="E15">
-            <v>0</v>
-          </cell>
-          <cell r="F15">
-            <v>5</v>
-          </cell>
-          <cell r="G15">
-            <v>14</v>
-          </cell>
-          <cell r="H15">
-            <v>11</v>
-          </cell>
-          <cell r="I15">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>unlikable/pleasing</v>
-          </cell>
-          <cell r="C16">
-            <v>2</v>
-          </cell>
-          <cell r="D16">
-            <v>0</v>
-          </cell>
-          <cell r="E16">
-            <v>3</v>
-          </cell>
-          <cell r="F16">
-            <v>2</v>
-          </cell>
-          <cell r="G16">
-            <v>8</v>
-          </cell>
-          <cell r="H16">
-            <v>19</v>
-          </cell>
-          <cell r="I16">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>usual/leading edge</v>
-          </cell>
-          <cell r="C17">
-            <v>1</v>
-          </cell>
-          <cell r="D17">
-            <v>1</v>
-          </cell>
-          <cell r="E17">
-            <v>3</v>
-          </cell>
-          <cell r="F17">
-            <v>9</v>
-          </cell>
-          <cell r="G17">
-            <v>14</v>
-          </cell>
-          <cell r="H17">
-            <v>11</v>
-          </cell>
-          <cell r="I17">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>unpleasant/pleasant</v>
-          </cell>
-          <cell r="C18">
-            <v>1</v>
-          </cell>
-          <cell r="D18">
-            <v>0</v>
-          </cell>
-          <cell r="E18">
-            <v>2</v>
-          </cell>
-          <cell r="F18">
-            <v>2</v>
-          </cell>
-          <cell r="G18">
-            <v>12</v>
-          </cell>
-          <cell r="H18">
-            <v>17</v>
-          </cell>
-          <cell r="I18">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>not secure/secure</v>
-          </cell>
-          <cell r="C19">
-            <v>0</v>
-          </cell>
-          <cell r="D19">
-            <v>0</v>
-          </cell>
-          <cell r="E19">
-            <v>3</v>
-          </cell>
-          <cell r="F19">
-            <v>1</v>
-          </cell>
-          <cell r="G19">
-            <v>2</v>
-          </cell>
-          <cell r="H19">
-            <v>25</v>
-          </cell>
-          <cell r="I19">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>demotivating/motivating</v>
-          </cell>
-          <cell r="C20">
-            <v>1</v>
-          </cell>
-          <cell r="D20">
-            <v>1</v>
-          </cell>
-          <cell r="E20">
-            <v>2</v>
-          </cell>
-          <cell r="F20">
-            <v>9</v>
-          </cell>
-          <cell r="G20">
-            <v>15</v>
-          </cell>
-          <cell r="H20">
-            <v>12</v>
-          </cell>
-          <cell r="I20">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>does not meet expectations/meets expectations</v>
-          </cell>
-          <cell r="C21">
-            <v>1</v>
-          </cell>
-          <cell r="D21">
-            <v>0</v>
-          </cell>
-          <cell r="E21">
-            <v>1</v>
-          </cell>
-          <cell r="F21">
-            <v>1</v>
-          </cell>
-          <cell r="G21">
-            <v>5</v>
-          </cell>
-          <cell r="H21">
-            <v>22</v>
-          </cell>
-          <cell r="I21">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>inefficient/efficient</v>
-          </cell>
-          <cell r="C22">
-            <v>1</v>
-          </cell>
-          <cell r="D22">
-            <v>0</v>
-          </cell>
-          <cell r="E22">
-            <v>0</v>
-          </cell>
-          <cell r="F22">
-            <v>2</v>
-          </cell>
-          <cell r="G22">
-            <v>6</v>
-          </cell>
-          <cell r="H22">
-            <v>18</v>
-          </cell>
-          <cell r="I22">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>confusing/clear</v>
-          </cell>
-          <cell r="C23">
-            <v>1</v>
-          </cell>
-          <cell r="D23">
-            <v>1</v>
-          </cell>
-          <cell r="E23">
-            <v>1</v>
-          </cell>
-          <cell r="F23">
-            <v>0</v>
-          </cell>
-          <cell r="G23">
-            <v>6</v>
-          </cell>
-          <cell r="H23">
-            <v>22</v>
-          </cell>
-          <cell r="I23">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>impractical/practical</v>
-          </cell>
-          <cell r="C24">
-            <v>0</v>
-          </cell>
-          <cell r="D24">
-            <v>0</v>
-          </cell>
-          <cell r="E24">
-            <v>0</v>
-          </cell>
-          <cell r="F24">
-            <v>4</v>
-          </cell>
-          <cell r="G24">
-            <v>1</v>
-          </cell>
-          <cell r="H24">
-            <v>26</v>
-          </cell>
-          <cell r="I24">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>cluttered/organized</v>
-          </cell>
-          <cell r="C25">
-            <v>1</v>
-          </cell>
-          <cell r="D25">
-            <v>1</v>
-          </cell>
-          <cell r="E25">
-            <v>2</v>
-          </cell>
-          <cell r="F25">
-            <v>2</v>
-          </cell>
-          <cell r="G25">
-            <v>8</v>
-          </cell>
-          <cell r="H25">
-            <v>15</v>
-          </cell>
-          <cell r="I25">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>unattractive/attractive</v>
-          </cell>
-          <cell r="C26">
-            <v>1</v>
-          </cell>
-          <cell r="D26">
-            <v>1</v>
-          </cell>
-          <cell r="E26">
-            <v>0</v>
-          </cell>
-          <cell r="F26">
-            <v>8</v>
-          </cell>
-          <cell r="G26">
-            <v>9</v>
-          </cell>
-          <cell r="H26">
-            <v>16</v>
-          </cell>
-          <cell r="I26">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>unfriendly/friendly</v>
-          </cell>
-          <cell r="C27">
-            <v>0</v>
-          </cell>
-          <cell r="D27">
-            <v>0</v>
-          </cell>
-          <cell r="E27">
-            <v>0</v>
-          </cell>
-          <cell r="F27">
-            <v>5</v>
-          </cell>
-          <cell r="G27">
-            <v>10</v>
-          </cell>
-          <cell r="H27">
-            <v>11</v>
-          </cell>
-          <cell r="I27">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>conservative/innovative</v>
-          </cell>
-          <cell r="C28">
-            <v>4</v>
-          </cell>
-          <cell r="D28">
-            <v>1</v>
-          </cell>
-          <cell r="E28">
-            <v>3</v>
-          </cell>
-          <cell r="F28">
-            <v>13</v>
-          </cell>
-          <cell r="G28">
-            <v>7</v>
-          </cell>
-          <cell r="H28">
-            <v>15</v>
-          </cell>
-          <cell r="I28">
-            <v>4</v>
+          <cell r="M5">
+            <v>0.32119164802730699</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Language</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -83874,10 +83219,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E894D59F-1834-4943-89D5-D95E8D4B3513}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47018B9B-F8BB-834C-AAA7-B1646CEF9DAC}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -83890,28 +83235,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="82.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="11" t="s">
+        <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="6">
@@ -83932,47 +83277,47 @@
       <c r="I2" s="6">
         <v>7</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>3</v>
+      <c r="J2" s="5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="8">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="str">
+      <c r="B3" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!F3,"/",[1]Results!G3)</f>
         <v>annoying/enjoyable</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="2">
         <f>COUNTIF([1]DT!A4:A1004,"-3")</f>
         <v>0</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="2">
         <f>COUNTIF([1]DT!A4:A1004,"-2")</f>
         <v>1</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="2">
         <f>COUNTIF([1]DT!A4:A1004,"-1")</f>
         <v>3</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="2">
         <f>COUNTIF([1]DT!A4:A1004,"0")</f>
         <v>1</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="2">
         <f>COUNTIF([1]DT!A4:A1004,"1")</f>
         <v>10</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="2">
         <f>COUNTIF([1]DT!A4:A1004,"2")</f>
         <v>17</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="2">
         <f>COUNTIF([1]DT!A4:A1004,"3")</f>
         <v>15</v>
       </c>
-      <c r="J3" s="10" t="str">
+      <c r="J3" s="1" t="str">
         <f>[1]Results!H3</f>
         <v>Attractiveness</v>
       </c>
@@ -83981,1026 +83326,1026 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="8">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="str">
+      <c r="B4" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!F4,"/",[1]Results!G4)</f>
         <v>not understandable/understandable</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="2">
         <f>COUNTIF([1]DT!B4:B1004,"-3")</f>
         <v>0</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="2">
         <f>COUNTIF([1]DT!B4:B1004,"-2")</f>
         <v>0</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="2">
         <f>COUNTIF([1]DT!B4:B1004,"-1")</f>
         <v>2</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="2">
         <f>COUNTIF([1]DT!B4:B1004,"0")</f>
         <v>1</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="2">
         <f>COUNTIF([1]DT!B4:B1004,"1")</f>
         <v>7</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="2">
         <f>COUNTIF([1]DT!B4:B1004,"2")</f>
         <v>16</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="2">
         <f>COUNTIF([1]DT!B4:B1004,"3")</f>
         <v>21</v>
       </c>
-      <c r="J4" s="10" t="str">
+      <c r="J4" s="1" t="str">
         <f>[1]Results!H4</f>
         <v>Perspicuity</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="8">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="str">
+      <c r="B5" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!G5,"/",[1]Results!F5)</f>
         <v>dull/creative</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="2">
         <f>COUNTIF([1]DT!C4:C1004,"-3")</f>
         <v>1</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="2">
         <f>COUNTIF([1]DT!C4:C1004,"-2")</f>
         <v>2</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="2">
         <f>COUNTIF([1]DT!C4:C1004,"-1")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="2">
         <f>COUNTIF([1]DT!C4:C1004,"0")</f>
         <v>14</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="2">
         <f>COUNTIF([1]DT!C4:C1004,"1")</f>
         <v>5</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="2">
         <f>COUNTIF([1]DT!C4:C1004,"2")</f>
         <v>13</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="2">
         <f>COUNTIF([1]DT!C4:C1004,"3")</f>
         <v>12</v>
       </c>
-      <c r="J5" s="10" t="str">
+      <c r="J5" s="1" t="str">
         <f>[1]Results!H5</f>
         <v>Novelty</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="8">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="str">
+      <c r="B6" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!G6,"/",[1]Results!F6)</f>
         <v>difficult to learn/easy to learn</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="2">
         <f>COUNTIF([1]DT!D4:D1004,"-3")</f>
         <v>2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="2">
         <f>COUNTIF([1]DT!D4:D1004,"-2")</f>
         <v>3</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="2">
         <f>COUNTIF([1]DT!D4:D1004,"-1")</f>
         <v>3</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="2">
         <f>COUNTIF([1]DT!D4:D1004,"0")</f>
         <v>0</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="2">
         <f>COUNTIF([1]DT!D4:D1004,"1")</f>
         <v>7</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="2">
         <f>COUNTIF([1]DT!D4:D1004,"2")</f>
         <v>15</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="2">
         <f>COUNTIF([1]DT!D4:D1004,"3")</f>
         <v>17</v>
       </c>
-      <c r="J6" s="10" t="str">
+      <c r="J6" s="1" t="str">
         <f>[1]Results!H6</f>
         <v>Perspicuity</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="8">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="str">
+      <c r="B7" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!G7,"/",[1]Results!F7)</f>
         <v>inferior/valuable</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="2">
         <f>COUNTIF([1]DT!E4:E1004,"-3")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="2">
         <f>COUNTIF([1]DT!E4:E1004,"-2")</f>
         <v>0</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="2">
         <f>COUNTIF([1]DT!E4:E1004,"-1")</f>
         <v>1</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="2">
         <f>COUNTIF([1]DT!E4:E1004,"0")</f>
         <v>7</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="2">
         <f>COUNTIF([1]DT!E4:E1004,"1")</f>
         <v>8</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="2">
         <f>COUNTIF([1]DT!E4:E1004,"2")</f>
         <v>16</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="2">
         <f>COUNTIF([1]DT!E4:E1004,"3")</f>
         <v>15</v>
       </c>
-      <c r="J7" s="11" t="str">
+      <c r="J7" s="4" t="str">
         <f>[1]Results!H7</f>
         <v>Stimulation</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="8">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="str">
+      <c r="B8" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!F8,"/",[1]Results!G8)</f>
         <v>boring/exciting</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="2">
         <f>COUNTIF([1]DT!F4:F1004,"-3")</f>
         <v>1</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="2">
         <f>COUNTIF([1]DT!F4:F1004,"-2")</f>
         <v>0</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="2">
         <f>COUNTIF([1]DT!F4:F1004,"-1")</f>
         <v>1</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="2">
         <f>COUNTIF([1]DT!F4:F1004,"0")</f>
         <v>14</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="2">
         <f>COUNTIF([1]DT!F4:F1004,"1")</f>
         <v>11</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="2">
         <f>COUNTIF([1]DT!F4:F1004,"2")</f>
         <v>14</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="2">
         <f>COUNTIF([1]DT!F4:F1004,"3")</f>
         <v>6</v>
       </c>
-      <c r="J8" s="11" t="str">
+      <c r="J8" s="4" t="str">
         <f>[1]Results!H8</f>
         <v>Stimulation</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="8">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="str">
+      <c r="B9" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!F9,"/",[1]Results!G9)</f>
         <v>not interesting/interesting</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="2">
         <f>COUNTIF([1]DT!G4:G1004,"-3")</f>
         <v>1</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="2">
         <f>COUNTIF([1]DT!G4:G1004,"-2")</f>
         <v>2</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="2">
         <f>COUNTIF([1]DT!G4:G1004,"-1")</f>
         <v>1</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="2">
         <f>COUNTIF([1]DT!G4:G1004,"0")</f>
         <v>8</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="2">
         <f>COUNTIF([1]DT!G4:G1004,"1")</f>
         <v>8</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="2">
         <f>COUNTIF([1]DT!G4:G1004,"2")</f>
         <v>21</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="2">
         <f>COUNTIF([1]DT!G4:G1004,"3")</f>
         <v>6</v>
       </c>
-      <c r="J9" s="11" t="str">
+      <c r="J9" s="4" t="str">
         <f>[1]Results!H9</f>
         <v>Stimulation</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="8">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="str">
+      <c r="B10" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!F10,"/",[1]Results!G10)</f>
         <v>unpredictable/predictable</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="2">
         <f>COUNTIF([1]DT!H4:H1004,"-3")</f>
         <v>2</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="2">
         <f>COUNTIF([1]DT!H4:H1004,"-2")</f>
         <v>1</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="2">
         <f>COUNTIF([1]DT!H4:H1004,"-1")</f>
         <v>7</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="2">
         <f>COUNTIF([1]DT!H4:H1004,"0")</f>
         <v>10</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="2">
         <f>COUNTIF([1]DT!H4:H1004,"1")</f>
         <v>12</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="2">
         <f>COUNTIF([1]DT!H4:H1004,"2")</f>
         <v>13</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="2">
         <f>COUNTIF([1]DT!H4:H1004,"3")</f>
         <v>2</v>
       </c>
-      <c r="J10" s="10" t="str">
+      <c r="J10" s="1" t="str">
         <f>[1]Results!H10</f>
         <v>Dependability</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="8">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="str">
+      <c r="B11" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!G11,"/",[1]Results!F11)</f>
         <v>slow/fast</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="2">
         <f>COUNTIF([1]DT!I4:I1004,"-3")</f>
         <v>0</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="2">
         <f>COUNTIF([1]DT!I4:I1004,"-2")</f>
         <v>1</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="2">
         <f>COUNTIF([1]DT!I4:I1004,"-1")</f>
         <v>1</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="2">
         <f>COUNTIF([1]DT!I4:I1004,"0")</f>
         <v>4</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="2">
         <f>COUNTIF([1]DT!I4:I1004,"1")</f>
         <v>8</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="2">
         <f>COUNTIF([1]DT!I4:I1004,"2")</f>
         <v>21</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="2">
         <f>COUNTIF([1]DT!I4:I1004,"3")</f>
         <v>12</v>
       </c>
-      <c r="J11" s="10" t="str">
+      <c r="J11" s="1" t="str">
         <f>[1]Results!H11</f>
         <v>Efficiency</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="8">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="str">
+      <c r="B12" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!G12,"/",[1]Results!F12)</f>
         <v>conventional/inventive</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="2">
         <f>COUNTIF([1]DT!J4:J1004,"-3")</f>
         <v>0</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="2">
         <f>COUNTIF([1]DT!J4:J1004,"-2")</f>
         <v>3</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="2">
         <f>COUNTIF([1]DT!J4:J1004,"-1")</f>
         <v>3</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="2">
         <f>COUNTIF([1]DT!J4:J1004,"0")</f>
         <v>11</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="2">
         <f>COUNTIF([1]DT!J4:J1004,"1")</f>
         <v>11</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="2">
         <f>COUNTIF([1]DT!J4:J1004,"2")</f>
         <v>10</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="2">
         <f>COUNTIF([1]DT!J4:J1004,"3")</f>
         <v>9</v>
       </c>
-      <c r="J12" s="10" t="str">
+      <c r="J12" s="1" t="str">
         <f>[1]Results!H12</f>
         <v>Novelty</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="8">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="str">
+      <c r="B13" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!F13,"/",[1]Results!G13)</f>
         <v>obstructive/supportive</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="2">
         <f>COUNTIF([1]DT!K4:K1004,"-3")</f>
         <v>0</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="2">
         <f>COUNTIF([1]DT!K4:K1004,"-2")</f>
         <v>2</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="2">
         <f>COUNTIF([1]DT!K4:K1004,"-1")</f>
         <v>1</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="2">
         <f>COUNTIF([1]DT!K4:K1004,"0")</f>
         <v>8</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="2">
         <f>COUNTIF([1]DT!K4:K1004,"1")</f>
         <v>13</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="2">
         <f>COUNTIF([1]DT!K4:K1004,"2")</f>
         <v>14</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="2">
         <f>COUNTIF([1]DT!K4:K1004,"3")</f>
         <v>9</v>
       </c>
-      <c r="J13" s="10" t="str">
+      <c r="J13" s="1" t="str">
         <f>[1]Results!H13</f>
         <v>Dependability</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="8">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="str">
+      <c r="B14" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!G14,"/",[1]Results!F14)</f>
         <v>bad/good</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="2">
         <f>COUNTIF([1]DT!L4:L1004,"-3")</f>
         <v>2</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="2">
         <f>COUNTIF([1]DT!L4:L1004,"-2")</f>
         <v>0</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="2">
         <f>COUNTIF([1]DT!L4:L1004,"-1")</f>
         <v>0</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="2">
         <f>COUNTIF([1]DT!L4:L1004,"0")</f>
         <v>1</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="2">
         <f>COUNTIF([1]DT!L4:L1004,"1")</f>
         <v>7</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="2">
         <f>COUNTIF([1]DT!L4:L1004,"2")</f>
         <v>17</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="2">
         <f>COUNTIF([1]DT!L4:L1004,"3")</f>
         <v>20</v>
       </c>
-      <c r="J14" s="10" t="str">
+      <c r="J14" s="1" t="str">
         <f>[1]Results!H14</f>
         <v>Attractiveness</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="8">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="str">
+      <c r="B15" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!F15,"/",[1]Results!G15)</f>
         <v>complicated/easy</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="2">
         <f>COUNTIF([1]DT!M4:M1004,"-3")</f>
         <v>1</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="2">
         <f>COUNTIF([1]DT!M4:M1004,"-2")</f>
         <v>0</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="2">
         <f>COUNTIF([1]DT!M4:M1004,"-1")</f>
         <v>0</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="2">
         <f>COUNTIF([1]DT!M4:M1004,"0")</f>
         <v>5</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="2">
         <f>COUNTIF([1]DT!M4:M1004,"1")</f>
         <v>14</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="2">
         <f>COUNTIF([1]DT!M4:M1004,"2")</f>
         <v>11</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="2">
         <f>COUNTIF([1]DT!M4:M1004,"3")</f>
         <v>16</v>
       </c>
-      <c r="J15" s="10" t="str">
+      <c r="J15" s="1" t="str">
         <f>[1]Results!H15</f>
         <v>Perspicuity</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="8">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="str">
+      <c r="B16" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!F16,"/",[1]Results!G16)</f>
         <v>unlikable/pleasing</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="2">
         <f>COUNTIF([1]DT!N4:N1004,"-3")</f>
         <v>2</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="2">
         <f>COUNTIF([1]DT!N4:N1004,"-2")</f>
         <v>0</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="2">
         <f>COUNTIF([1]DT!N4:N1004,"-1")</f>
         <v>3</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="2">
         <f>COUNTIF([1]DT!N4:N1004,"0")</f>
         <v>2</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="2">
         <f>COUNTIF([1]DT!N4:N1004,"1")</f>
         <v>8</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="2">
         <f>COUNTIF([1]DT!N4:N1004,"2")</f>
         <v>19</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="2">
         <f>COUNTIF([1]DT!N4:N1004,"3")</f>
         <v>13</v>
       </c>
-      <c r="J16" s="10" t="str">
+      <c r="J16" s="1" t="str">
         <f>[1]Results!H16</f>
         <v>Attractiveness</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="8">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="str">
+      <c r="B17" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!F17,"/",[1]Results!G17)</f>
         <v>usual/leading edge</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="2">
         <f>COUNTIF([1]DT!O4:O1004,"-3")</f>
         <v>1</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="2">
         <f>COUNTIF([1]DT!O4:O1004,"-2")</f>
         <v>1</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="2">
         <f>COUNTIF([1]DT!O4:O1004,"-1")</f>
         <v>3</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="2">
         <f>COUNTIF([1]DT!O4:O1004,"0")</f>
         <v>9</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="2">
         <f>COUNTIF([1]DT!O4:O1004,"1")</f>
         <v>14</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="2">
         <f>COUNTIF([1]DT!O4:O1004,"2")</f>
         <v>11</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="2">
         <f>COUNTIF([1]DT!O4:O1004,"3")</f>
         <v>8</v>
       </c>
-      <c r="J17" s="10" t="str">
+      <c r="J17" s="1" t="str">
         <f>[1]Results!H17</f>
         <v>Novelty</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="8">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="str">
+      <c r="B18" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!F18,"/",[1]Results!G18)</f>
         <v>unpleasant/pleasant</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="2">
         <f>COUNTIF([1]DT!P4:P1004,"-3")</f>
         <v>1</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="2">
         <f>COUNTIF([1]DT!P4:P1004,"-2")</f>
         <v>0</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="2">
         <f>COUNTIF([1]DT!P4:P1004,"-1")</f>
         <v>2</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="2">
         <f>COUNTIF([1]DT!P4:P1004,"0")</f>
         <v>2</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="2">
         <f>COUNTIF([1]DT!P4:P1004,"1")</f>
         <v>12</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="2">
         <f>COUNTIF([1]DT!P4:P1004,"2")</f>
         <v>17</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="2">
         <f>COUNTIF([1]DT!P4:P1004,"3")</f>
         <v>13</v>
       </c>
-      <c r="J18" s="10" t="str">
+      <c r="J18" s="1" t="str">
         <f>[1]Results!H18</f>
         <v>Attractiveness</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="8">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="str">
+      <c r="B19" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!G19,"/",[1]Results!F19)</f>
         <v>not secure/secure</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="2">
         <f>COUNTIF([1]DT!Q4:Q1004,"-3")</f>
         <v>0</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="2">
         <f>COUNTIF([1]DT!Q4:Q1004,"-2")</f>
         <v>0</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="2">
         <f>COUNTIF([1]DT!Q4:Q1004,"-1")</f>
         <v>3</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="2">
         <f>COUNTIF([1]DT!Q4:Q1004,"0")</f>
         <v>1</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="2">
         <f>COUNTIF([1]DT!Q4:Q1004,"1")</f>
         <v>2</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="2">
         <f>COUNTIF([1]DT!Q4:Q1004,"2")</f>
         <v>25</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="2">
         <f>COUNTIF([1]DT!Q4:Q1004,"3")</f>
         <v>16</v>
       </c>
-      <c r="J19" s="10" t="str">
+      <c r="J19" s="1" t="str">
         <f>[1]Results!H19</f>
         <v>Dependability</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="8">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="str">
+      <c r="B20" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!G20,"/",[1]Results!F20)</f>
         <v>demotivating/motivating</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="2">
         <f>COUNTIF([1]DT!R4:R1004,"-3")</f>
         <v>1</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="2">
         <f>COUNTIF([1]DT!R4:R1004,"-2")</f>
         <v>1</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="2">
         <f>COUNTIF([1]DT!R4:R1004,"-1")</f>
         <v>2</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="2">
         <f>COUNTIF([1]DT!R4:R1004,"0")</f>
         <v>9</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="2">
         <f>COUNTIF([1]DT!R4:R1004,"1")</f>
         <v>15</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="2">
         <f>COUNTIF([1]DT!R4:R1004,"2")</f>
         <v>12</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="2">
         <f>COUNTIF([1]DT!R4:R1004,"3")</f>
         <v>7</v>
       </c>
-      <c r="J20" s="11" t="str">
+      <c r="J20" s="4" t="str">
         <f>[1]Results!H20</f>
         <v>Stimulation</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="8">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="str">
+      <c r="B21" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!G21,"/",[1]Results!F21)</f>
         <v>does not meet expectations/meets expectations</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="2">
         <f>COUNTIF([1]DT!S4:S1004,"-3")</f>
         <v>1</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="2">
         <f>COUNTIF([1]DT!S4:S1004,"-2")</f>
         <v>0</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="2">
         <f>COUNTIF([1]DT!S4:S1004,"-1")</f>
         <v>1</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="2">
         <f>COUNTIF([1]DT!S4:S1004,"0")</f>
         <v>1</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="2">
         <f>COUNTIF([1]DT!S4:S1004,"1")</f>
         <v>5</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="2">
         <f>COUNTIF([1]DT!S4:S1004,"2")</f>
         <v>22</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="2">
         <f>COUNTIF([1]DT!S4:S1004,"3")</f>
         <v>17</v>
       </c>
-      <c r="J21" s="10" t="str">
+      <c r="J21" s="1" t="str">
         <f>[1]Results!H21</f>
         <v>Dependability</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="8">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="str">
+      <c r="B22" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!F22,"/",[1]Results!G22)</f>
         <v>inefficient/efficient</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="2">
         <f>COUNTIF([1]DT!T4:T1004,"-3")</f>
         <v>1</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="2">
         <f>COUNTIF([1]DT!T4:T1004,"-2")</f>
         <v>0</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="2">
         <f>COUNTIF([1]DT!T4:T1004,"-1")</f>
         <v>0</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="2">
         <f>COUNTIF([1]DT!T4:T1004,"0")</f>
         <v>2</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="2">
         <f>COUNTIF([1]DT!T4:T1004,"1")</f>
         <v>6</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="2">
         <f>COUNTIF([1]DT!T4:T1004,"2")</f>
         <v>18</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="2">
         <f>COUNTIF([1]DT!T4:T1004,"3")</f>
         <v>20</v>
       </c>
-      <c r="J22" s="10" t="str">
+      <c r="J22" s="1" t="str">
         <f>[1]Results!H22</f>
         <v>Efficiency</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="8">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="str">
+      <c r="B23" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!G23,"/",[1]Results!F23)</f>
         <v>confusing/clear</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="2">
         <f>COUNTIF([1]DT!U4:U1004,"-3")</f>
         <v>1</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="2">
         <f>COUNTIF([1]DT!U4:U1004,"-2")</f>
         <v>1</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="2">
         <f>COUNTIF([1]DT!U4:U1004,"-1")</f>
         <v>1</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="2">
         <f>COUNTIF([1]DT!U4:U1004,"0")</f>
         <v>0</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="2">
         <f>COUNTIF([1]DT!U4:U1004,"1")</f>
         <v>6</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="2">
         <f>COUNTIF([1]DT!U4:U1004,"2")</f>
         <v>22</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="2">
         <f>COUNTIF([1]DT!U4:U1004,"3")</f>
         <v>16</v>
       </c>
-      <c r="J23" s="10" t="str">
+      <c r="J23" s="1" t="str">
         <f>[1]Results!H23</f>
         <v>Perspicuity</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="8">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="str">
+      <c r="B24" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!F24,"/",[1]Results!G24)</f>
         <v>impractical/practical</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="2">
         <f>COUNTIF([1]DT!V4:V1004,"-3")</f>
         <v>0</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="2">
         <f>COUNTIF([1]DT!V4:V1004,"-2")</f>
         <v>0</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="2">
         <f>COUNTIF([1]DT!V4:V1004,"-1")</f>
         <v>0</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="2">
         <f>COUNTIF([1]DT!V4:V1004,"0")</f>
         <v>4</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="2">
         <f>COUNTIF([1]DT!V4:V1004,"1")</f>
         <v>1</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="2">
         <f>COUNTIF([1]DT!V4:V1004,"2")</f>
         <v>26</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="2">
         <f>COUNTIF([1]DT!V4:V1004,"3")</f>
         <v>16</v>
       </c>
-      <c r="J24" s="10" t="str">
+      <c r="J24" s="1" t="str">
         <f>[1]Results!H24</f>
         <v>Efficiency</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="8">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="str">
+      <c r="B25" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!G25,"/",[1]Results!F25)</f>
         <v>cluttered/organized</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="2">
         <f>COUNTIF([1]DT!W4:W1004,"-3")</f>
         <v>1</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="2">
         <f>COUNTIF([1]DT!W4:W1004,"-2")</f>
         <v>1</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="2">
         <f>COUNTIF([1]DT!W4:W1004,"-1")</f>
         <v>2</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="2">
         <f>COUNTIF([1]DT!W4:W1004,"0")</f>
         <v>2</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="2">
         <f>COUNTIF([1]DT!W4:W1004,"1")</f>
         <v>8</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="2">
         <f>COUNTIF([1]DT!W4:W1004,"2")</f>
         <v>15</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="2">
         <f>COUNTIF([1]DT!W4:W1004,"3")</f>
         <v>18</v>
       </c>
-      <c r="J25" s="10" t="str">
+      <c r="J25" s="1" t="str">
         <f>[1]Results!H25</f>
         <v>Efficiency</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="8">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="str">
+      <c r="B26" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!G26,"/",[1]Results!F26)</f>
         <v>unattractive/attractive</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="2">
         <f>COUNTIF([1]DT!X4:X1004,"-3")</f>
         <v>1</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="2">
         <f>COUNTIF([1]DT!X4:X1004,"-2")</f>
         <v>1</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="2">
         <f>COUNTIF([1]DT!X4:X1004,"-1")</f>
         <v>0</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="2">
         <f>COUNTIF([1]DT!X4:X1004,"0")</f>
         <v>8</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="2">
         <f>COUNTIF([1]DT!X4:X1004,"1")</f>
         <v>9</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="2">
         <f>COUNTIF([1]DT!X4:X1004,"2")</f>
         <v>16</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="2">
         <f>COUNTIF([1]DT!X4:X1004,"3")</f>
         <v>12</v>
       </c>
-      <c r="J26" s="10" t="str">
+      <c r="J26" s="1" t="str">
         <f>[1]Results!H26</f>
         <v>Attractiveness</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="8">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="str">
+      <c r="B27" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!G27,"/",[1]Results!F27)</f>
         <v>unfriendly/friendly</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="2">
         <f>COUNTIF([1]DT!Y4:Y1004,"-3")</f>
         <v>0</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="2">
         <f>COUNTIF([1]DT!Y4:Y1004,"-2")</f>
         <v>0</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="2">
         <f>COUNTIF([1]DT!Y4:Y1004,"-1")</f>
         <v>0</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="2">
         <f>COUNTIF([1]DT!Y4:Y1004,"0")</f>
         <v>5</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="2">
         <f>COUNTIF([1]DT!Y4:Y1004,"1")</f>
         <v>10</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="2">
         <f>COUNTIF([1]DT!Y4:Y1004,"2")</f>
         <v>11</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="2">
         <f>COUNTIF([1]DT!Y4:Y1004,"3")</f>
         <v>21</v>
       </c>
-      <c r="J27" s="10" t="str">
+      <c r="J27" s="1" t="str">
         <f>[1]Results!H27</f>
         <v>Attractiveness</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="8">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="str">
+      <c r="B28" s="2" t="str">
         <f>_xlfn.CONCAT([1]Results!F28,"/",[1]Results!G28)</f>
         <v>conservative/innovative</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="2">
         <f>COUNTIF([1]DT!Z4:Z1004,"-3")</f>
         <v>4</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="2">
         <f>COUNTIF([1]DT!Z4:Z1004,"-2")</f>
         <v>1</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="2">
         <f>COUNTIF([1]DT!Z4:Z1004,"-1")</f>
         <v>3</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="2">
         <f>COUNTIF([1]DT!Z4:Z1004,"0")</f>
         <v>13</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="2">
         <f>COUNTIF([1]DT!Z4:Z1004,"1")</f>
         <v>7</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="2">
         <f>COUNTIF([1]DT!Z4:Z1004,"2")</f>
         <v>15</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="2">
         <f>COUNTIF([1]DT!Z4:Z1004,"3")</f>
         <v>4</v>
       </c>
-      <c r="J28" s="10" t="str">
+      <c r="J28" s="1" t="str">
         <f>[1]Results!H28</f>
         <v>Novelty</v>
       </c>
@@ -85009,9 +84354,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <customProperties>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
+  </customProperties>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>